--- a/pred_ohlcv/54_21/2020-01-16 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CMT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-526243.0693999997</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-641893.3788999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-679932.2082999997</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-27999.96049999986</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-27999.96049999986</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>664693.6485000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>664693.6485000001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>782591.7176000001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>660781.2031</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>679565.1357</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>729220.2613</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>729220.2613</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>801584.4235</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1084648.534130786</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1146224.2663</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1149274.2663</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1149274.2663</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1228383.6983</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1221194.6404</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1160450.7281</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1169368.7281</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1169368.7281</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>829483.6952</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>861430.6431</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>918208.7108</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>916252.9992</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>916252.9992</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1247976.550959785</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1400740.280359785</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1395501.336459785</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1278415.931459785</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1456253.502459785</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1462513.615559785</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1692769.255559785</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1401457.824259785</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1393857.824259785</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1389517.824259785</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1383384.303259785</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1383420.303259785</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1201631.525259785</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1179200.784259785</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1191507.330259785</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1191507.330259785</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1184378.302659785</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1160326.529159785</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1169656.529159785</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>756246.2834325124</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CMT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-530443.0693999997</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-526243.0693999997</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-526672.1232999997</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-509119.5839999997</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-514749.5839999997</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-641893.3788999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-708903.1892999997</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-679932.2082999997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-681911.7682999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-31999.96049999986</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-27999.96049999986</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-27999.96049999986</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>22642.03950000014</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>279119.2359000001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>664693.6485000001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>664693.6485000001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>782591.7176000001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>660781.2031</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>679565.1357</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>729220.2613</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>729220.2613</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>801584.4235</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1084648.534130786</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1084648.534130786</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1281228.5089</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1153324.0607</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1146224.2663</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1149274.2663</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1149274.2663</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1228383.6983</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1223844.6404</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1221194.6404</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1160450.7281</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1169368.7281</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1169368.7281</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>829483.6952</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>861430.6431</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>918208.7108</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>916252.9992</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>916252.9992</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>883131.5969</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1443503.249059785</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1247976.550959785</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1264492.550959785</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1400740.280359785</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1395501.336459785</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1278415.931459785</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1456253.502459785</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1462513.615559785</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1692769.255559785</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1401457.824259785</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1393857.824259785</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1389517.824259785</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1383384.303259785</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1383420.303259785</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1193322.670959785</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1179200.784259785</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1184378.302659785</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1160326.529159785</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1169656.529159785</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>905481.3626597852</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>744641.5152325124</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>784617.8390325124</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>782264.5992325124</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>723466.4472325124</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>714491.2306325124</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>511705.3154325124</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
